--- a/teddy_sneaker_shop.xlsx
+++ b/teddy_sneaker_shop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -46,67 +46,19 @@
     <t>ALIBEK</t>
   </si>
   <si>
-    <t>Nike air max</t>
-  </si>
-  <si>
     <t>https://www.golfposer.com/media/magefan_blog/NIKE-INFRARED-AIR-MAX-90-GOLF-SHOES-BLACK-2022.jpg</t>
   </si>
   <si>
     <t>ALI</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>KOZEL</t>
   </si>
   <si>
-    <t>Adidas Campus</t>
-  </si>
-  <si>
-    <t>https://cdn-images.farfetch-contents.com/20/54/00/73/20540073_50479526_600.jpg</t>
-  </si>
-  <si>
     <t>BARAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nike Air Jordan (cactus jack) </t>
-  </si>
-  <si>
-    <t>https://kvakva.kz/wp-content/uploads/2020/11/IMG_20201027_113518-scaled.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nike Air Jordan (classic) </t>
-  </si>
-  <si>
-    <t>https://i5.walmartimages.com/asr/9934350a-44bd-4dbd-bf61-146541233161.97aaf0944fb64c262a6a6051e5a225c2.jpeg</t>
-  </si>
-  <si>
-    <t>Slippers Gucci</t>
-  </si>
-  <si>
-    <t>https://storage.yandexcloud.net/cdn-prod.viled.kz/v3/original/2500129NiTj.jpeg</t>
-  </si>
-  <si>
-    <t>Nike Blazer</t>
-  </si>
-  <si>
-    <t>https://www.club100.kz/i/Photos/mpm/44377.jpg</t>
-  </si>
-  <si>
-    <t>Adidas Stan Smith</t>
-  </si>
-  <si>
-    <t>https://assetmanagerpim-res.cloudinary.com/images/w_1560/q_100/68ae7ea7849b43eca70aac1e00f5146d_9366/FX5502_01_standard.WebP</t>
-  </si>
-  <si>
-    <t>Adidas Slide</t>
-  </si>
-  <si>
-    <t>https://f.steptime.online/image/cache/catalog/products/19958/Adidas-slancy-Adidas-Yeezy-slide-1-750x750.jpg</t>
-  </si>
-  <si>
-    <t>Nike Air Force (classic white)</t>
-  </si>
-  <si>
-    <t>https://momsbox.kz/upload/iblock/83b/%D0%91%D0%B5%D0%B7-%D0%B8%D0%BC%D0%B5%D0%BD%D0%B8-3.jpg</t>
   </si>
   <si>
     <t>Adidas Yeezy</t>
@@ -130,7 +82,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -169,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +130,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -494,16 +452,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="128.4335714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="4.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="128.4335714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="11.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,39 +509,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30000</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>47</v>
@@ -596,40 +550,32 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>35000</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="2">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2">
-        <v>35000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>48</v>
@@ -638,17 +584,13 @@
       <c r="G6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2">
-        <v>35000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="2">
         <v>50</v>
@@ -657,17 +599,13 @@
       <c r="G7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>46</v>
@@ -676,17 +614,13 @@
       <c r="G8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42000</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="2">
         <v>47</v>
@@ -695,17 +629,13 @@
       <c r="G9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42000</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="2">
         <v>50</v>
@@ -714,17 +644,13 @@
       <c r="G10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2">
-        <v>42000</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="2">
         <v>49</v>
@@ -733,17 +659,13 @@
       <c r="G11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42000</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="2">
         <v>50</v>
@@ -752,17 +674,13 @@
       <c r="G12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="2">
         <v>48</v>
@@ -771,17 +689,13 @@
       <c r="G13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="2">
         <v>48</v>
@@ -790,17 +704,13 @@
       <c r="G14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="2">
         <v>50</v>
@@ -809,17 +719,13 @@
       <c r="G15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="2">
         <v>47</v>
@@ -828,17 +734,13 @@
       <c r="G16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="2">
         <v>50</v>
@@ -847,17 +749,13 @@
       <c r="G17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="2">
         <v>45</v>
@@ -866,17 +764,13 @@
       <c r="G18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="2">
         <v>50</v>
@@ -885,17 +779,13 @@
       <c r="G19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="2">
         <v>50</v>
@@ -904,17 +794,13 @@
       <c r="G20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
-        <v>36</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="2">
         <v>50</v>
@@ -923,17 +809,13 @@
       <c r="G21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E22" s="2">
         <v>50</v>
@@ -942,17 +824,13 @@
       <c r="G22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E23" s="2">
         <v>50</v>
@@ -961,17 +839,13 @@
       <c r="G23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E24" s="2">
         <v>50</v>
@@ -980,17 +854,13 @@
       <c r="G24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -999,17 +869,13 @@
       <c r="G25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>39</v>
-      </c>
-      <c r="C26" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E26" s="2">
         <v>50</v>
@@ -1018,17 +884,13 @@
       <c r="G26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>38</v>
-      </c>
-      <c r="C27" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E27" s="2">
         <v>50</v>
@@ -1037,17 +899,13 @@
       <c r="G27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>26</v>
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E28" s="2">
         <v>50</v>
@@ -1056,17 +914,13 @@
       <c r="G28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2">
-        <v>32000</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>26</v>
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E29" s="2">
         <v>50</v>
@@ -1075,17 +929,13 @@
       <c r="G29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2">
-        <v>43</v>
-      </c>
-      <c r="C30" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>28</v>
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E30" s="2">
         <v>50</v>
@@ -1094,17 +944,13 @@
       <c r="G30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <v>42</v>
-      </c>
-      <c r="C31" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E31" s="2">
         <v>46</v>
@@ -1113,17 +959,13 @@
       <c r="G31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="2">
-        <v>41</v>
-      </c>
-      <c r="C32" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>28</v>
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E32" s="2">
         <v>50</v>
@@ -1132,17 +974,13 @@
       <c r="G32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2">
-        <v>40</v>
-      </c>
-      <c r="C33" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>28</v>
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E33" s="2">
         <v>50</v>
@@ -1151,17 +989,13 @@
       <c r="G33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="2">
-        <v>39</v>
-      </c>
-      <c r="C34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>28</v>
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E34" s="2">
         <v>50</v>
@@ -1170,17 +1004,13 @@
       <c r="G34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43</v>
-      </c>
-      <c r="C35" s="2">
-        <v>48000</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>30</v>
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E35" s="2">
         <v>46</v>
@@ -1189,17 +1019,13 @@
       <c r="G35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="2">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2">
-        <v>48000</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>30</v>
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E36" s="2">
         <v>48</v>
@@ -1208,17 +1034,13 @@
       <c r="G36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2">
-        <v>41</v>
-      </c>
-      <c r="C37" s="2">
-        <v>48000</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>30</v>
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E37" s="2">
         <v>50</v>
@@ -1227,36 +1049,28 @@
       <c r="G37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="2">
-        <v>40</v>
-      </c>
-      <c r="C38" s="2">
-        <v>48000</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>30</v>
+      <c r="A38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E38" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2">
-        <v>43</v>
-      </c>
-      <c r="C39" s="2">
-        <v>52000</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>32</v>
+      <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E39" s="2">
         <v>49</v>
@@ -1265,17 +1079,13 @@
       <c r="G39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2">
-        <v>42</v>
-      </c>
-      <c r="C40" s="2">
-        <v>52000</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>32</v>
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E40" s="2">
         <v>49</v>
@@ -1284,17 +1094,13 @@
       <c r="G40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="2">
-        <v>41</v>
-      </c>
-      <c r="C41" s="2">
-        <v>52000</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>32</v>
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E41" s="2">
         <v>45</v>
@@ -1303,17 +1109,13 @@
       <c r="G41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2">
-        <v>52000</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>32</v>
+      <c r="A42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E42" s="2">
         <v>50</v>
@@ -1323,7 +1125,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2">
         <v>39</v>
@@ -1332,7 +1134,7 @@
         <v>52000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2">
         <v>49</v>
@@ -1342,7 +1144,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B44" s="2">
         <v>38</v>
@@ -1351,7 +1153,7 @@
         <v>52000</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2">
         <v>49</v>

--- a/teddy_sneaker_shop.xlsx
+++ b/teddy_sneaker_shop.xlsx
@@ -40,7 +40,7 @@
     <t>Visa Pre Paid</t>
   </si>
   <si>
-    <t>https://logodownload.org/wp-content/uploads/2016/10/visa-logo-2.png</t>
+    <t>https://th.bing.com/th/id/R.113a106aa979d0577abfa0d216e64af6?rik=POeOkT5gVljIpQ&amp;pid=ImgRaw&amp;r=0</t>
   </si>
   <si>
     <t>ALIBEK</t>
